--- a/data/heating/heating_metadata.xlsx
+++ b/data/heating/heating_metadata.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="42">
   <si>
     <t>filename</t>
   </si>
@@ -141,6 +141,21 @@
   </si>
   <si>
     <t>2024-04-04_C_UHfit</t>
+  </si>
+  <si>
+    <t>2024-04-08_G_UHfit</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>2024-04-05_C_UHfit</t>
+  </si>
+  <si>
+    <t>2024-04-10_C_UHfit</t>
+  </si>
+  <si>
+    <t>2024-04-10_D_UHfit</t>
   </si>
 </sst>
 </file>
@@ -467,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="J20" sqref="J20:M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1018,6 +1033,137 @@
         <v>394.44239123096287</v>
       </c>
     </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>45390</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17">
+        <v>202.14</v>
+      </c>
+      <c r="K17" s="2">
+        <v>185.23976894824716</v>
+      </c>
+      <c r="L17" s="2">
+        <v>496.23663709968042</v>
+      </c>
+      <c r="M17" s="2">
+        <v>483.09129571955646</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>45387</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18">
+        <v>5</v>
+      </c>
+      <c r="J18">
+        <v>202.14</v>
+      </c>
+      <c r="K18" s="2">
+        <v>151.24763799808576</v>
+      </c>
+      <c r="L18" s="2">
+        <v>405.17551752296185</v>
+      </c>
+      <c r="M18" s="2">
+        <v>394.44239123096287</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>45392</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19">
+        <v>202.14</v>
+      </c>
+      <c r="K19">
+        <v>169.1</v>
+      </c>
+      <c r="L19">
+        <v>453</v>
+      </c>
+      <c r="M19">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>45392</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20">
+        <v>202.14</v>
+      </c>
+      <c r="K20">
+        <v>169.1</v>
+      </c>
+      <c r="L20">
+        <v>453</v>
+      </c>
+      <c r="M20">
+        <v>441</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/heating/heating_metadata.xlsx
+++ b/data/heating/heating_metadata.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="48">
   <si>
     <t>filename</t>
   </si>
@@ -156,6 +156,24 @@
   </si>
   <si>
     <t>2024-04-10_D_UHfit</t>
+  </si>
+  <si>
+    <t>2024-05-09_M_UHfit</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>2024-05-10_R_UHfit</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>2024-05-10_S_UHfit</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
@@ -482,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20:M20"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1164,6 +1182,102 @@
         <v>441</v>
       </c>
     </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>45421</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21">
+        <v>202.14</v>
+      </c>
+      <c r="K21" s="2">
+        <v>151.24763799808576</v>
+      </c>
+      <c r="L21" s="2">
+        <v>405.17551752296185</v>
+      </c>
+      <c r="M21" s="2">
+        <v>394.44239123096287</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>45422</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22">
+        <v>202.14</v>
+      </c>
+      <c r="K22">
+        <v>169.1</v>
+      </c>
+      <c r="L22">
+        <v>453</v>
+      </c>
+      <c r="M22">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>45422</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" t="s">
+        <v>4</v>
+      </c>
+      <c r="J23">
+        <v>202.14</v>
+      </c>
+      <c r="K23">
+        <v>169.1</v>
+      </c>
+      <c r="L23">
+        <v>453</v>
+      </c>
+      <c r="M23">
+        <v>441</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
